--- a/RealLifeRiskR/www/Settings.xlsx
+++ b/RealLifeRiskR/www/Settings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\RealLifeRiskR\RealLifeRiskR\shiny\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\RealLifeRisk\RealLifeRiskR\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22095" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22095" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Spelers" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="125">
   <si>
     <t>A</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Herten</t>
+  </si>
+  <si>
+    <t>Bepaald de grootte van het bord; getal bepaald het percentage van het scherm dat door het bord wordt ingenomen</t>
+  </si>
+  <si>
+    <t>boardScale</t>
   </si>
 </sst>
 </file>
@@ -897,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1685,7 +1691,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2333,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,12 +2505,23 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>0.85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>110</v>
       </c>
     </row>
